--- a/similarities/split_global/harmonic_similarity_timestamps_184.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_184.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,726 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:01:04.480000', '0:01:12.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=64.48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:26.980000', '0:00:45.840000'), ('0:00:00.380000', '0:00:06.260000'), ('0:00:53.460000', '0:01:02.740000')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:08.300000', '0:00:12.960000'), ('0:00:34.340000', '0:00:35.880000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=26.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=53.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.34']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:01:41.060000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000')]</t>
+          <t>('0:01:06.920000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:9', 'C:7']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:9', 'Bb:7']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:13.450000', '0:00:21.300000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:17.330000', '0:00:21.670000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=13.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=17.33']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7'], ['G:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G:7'], ['C:maj6', 'G:7', 'C:maj6']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:14.770000', '0:00:19.670000'), ('0:00:11.900000', '0:00:13.120000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:44.660000', '0:00:48.530000'), ('0:00:13.020000', '0:00:18.710000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=14.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=11.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=44.66', 'https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=13.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7'], ['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7'], ['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:31.750000'), ('0:00:55.230000', '0:01:05.420000')]</t>
+          <t>('0:00:20.860000', '0:00:27.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:19.980000'), ('0:00:17.900000', '0:00:24.560000')]</t>
+          <t>('0:01:46.960000', '0:01:58.780000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=20.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=17.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=106.96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_65</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['F:7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G:7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.900000', '0:00:07.720000')]</t>
+          <t>('0:00:07.420000', '0:00:09.260000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
+          <t>('0:00:07.510000', '0:00:08.810000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=7.42</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=6.88']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=7.51</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:27.200000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>isophonics_87</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.497838', '0:00:06.774988')]</t>
+          <t>('0:00:58.940000', '0:01:05.180000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:01:06.427052', '0:01:11.593492')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=0.497838']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=58.94</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:48.170328', '0:00:55.589104')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:00', '0:00:02.430000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+          <t>('0:00:07.400000', '0:00:16.480000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:21.213174', '0:00:28.074671')]</t>
+          <t>('0:00:02.640000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=21.213174']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.060000', '0:00:18.800000')]</t>
+          <t>('0:00:31.340000', '0:00:41.920000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:47.400000', '0:02:06.860000')]</t>
+          <t>('0:01:39.280000', '0:01:54.020000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=11.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=31.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=107.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=99.28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:min/F', 'F:7', 'A#:min'], ['C#/F', 'A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:23.500000', '0:00:31.240000'), ('0:01:09', '0:01:14.900000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:41.140000', '0:00:53.020000'), ('0:00:35.080000', '0:00:43.920000')]</t>
+          <t>('0:00:17.080000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=23.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=69.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=41.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=35.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=17.08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Eb:7', 'Ab:maj', 'Ab/7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:54.072000', '0:00:59.053000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:18.660000', '0:00:20.740000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=54.072</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:24.620000', '0:01:31.740000')]</t>
+          <t>('0:00:55.230000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:00:17.080000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=17.08</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
